--- a/Projects/CCBZA/Data/Template_L&T_January.xlsx
+++ b/Projects/CCBZA/Data/Template_L&T_January.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,33 +17,30 @@
     <sheet name="Availability" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$150</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$68</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$X$150</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$V$92</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$I$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="gdf" vbProcedure="false">Price!$A$1:$Q$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="lkjj" vbProcedure="false">Price!$A$1:$Q$45</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="ol" vbProcedure="false">Price!$A$1:$Q$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="s" vbProcedure="false">Price!$A$1:$Q$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$V$92</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$V$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$V$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$N$62</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$I$62</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$N$62</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Survey!$A$1:$I$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Survey!$A$1:$N$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$I$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$I$62</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$S$108</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="f" vbProcedure="false">Availability!$A$1:$S$143</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="fdg" vbProcedure="false">Availability!$A$1:$S$143</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="hgf" vbProcedure="false">Availability!$A$1:$S$108</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="k" vbProcedure="false">Availability!$A$1:$S$143</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="ykmjh" vbProcedure="false">Availability!$A$1:$S$143</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$143</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$143</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$X$150</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$150</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$108</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_hk" vbProcedure="false">Availability!$A$1:$S$143</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$X$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$X$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$150</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="256">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t xml:space="preserve">DOC 50% vs competitors Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">WATER</t>
@@ -1228,15 +1228,15 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3488372093023"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0697674418605"/>
@@ -1255,7 +1255,7 @@
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="R11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +1764,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1780,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1845,15 +1845,15 @@
   </sheetPr>
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4093023255814"/>
@@ -1879,7 +1879,7 @@
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1971,9 +1971,8 @@
       <c r="Q2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2008,7 @@
       </c>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -2045,7 +2044,7 @@
       </c>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -2081,7 +2080,7 @@
       </c>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2124,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2168,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2215,7 +2214,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2260,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2305,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
@@ -2396,7 +2395,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2436,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -2478,7 +2477,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2521,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2563,7 +2562,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2582,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>64</v>
@@ -2607,7 +2606,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2649,7 +2648,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
@@ -2691,7 +2690,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2774,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2934,7 +2933,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>93</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>64</v>
@@ -3013,7 +3012,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -3097,7 +3096,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
         <v>21</v>
       </c>
@@ -3183,7 +3182,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
         <v>21</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>1</v>
@@ -3271,7 +3270,7 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -3312,7 +3311,7 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>29</v>
       </c>
@@ -3397,7 +3396,7 @@
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
@@ -3438,7 +3437,7 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
         <v>31</v>
       </c>
@@ -3458,7 +3457,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>64</v>
@@ -3479,7 +3478,7 @@
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
         <v>21</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
         <v>21</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
         <v>22</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>101</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>2</v>
@@ -3602,7 +3601,7 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>23</v>
       </c>
@@ -3640,7 +3639,7 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>23</v>
       </c>
@@ -3678,7 +3677,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3757,7 +3756,7 @@
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>93</v>
       </c>
       <c r="J46" s="18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>64</v>
@@ -3795,7 +3794,7 @@
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
@@ -3836,7 +3835,7 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
         <v>21</v>
       </c>
@@ -3959,7 +3958,7 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
         <v>22</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>101</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>2</v>
@@ -4000,7 +3999,7 @@
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
         <v>22</v>
       </c>
@@ -4041,7 +4040,7 @@
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +4116,7 @@
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>31</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>31</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>93</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>64</v>
@@ -4234,7 +4233,7 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>18</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>18</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>20</v>
       </c>
@@ -4357,7 +4356,7 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
         <v>21</v>
       </c>
@@ -4398,7 +4397,7 @@
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17" t="s">
         <v>22</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>101</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>2</v>
@@ -4439,7 +4438,7 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
         <v>22</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>23</v>
       </c>
@@ -4521,7 +4520,7 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -4559,7 +4558,7 @@
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -4638,7 +4637,7 @@
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>31</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>93</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>64</v>
@@ -4676,7 +4675,7 @@
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="17" t="s">
         <v>40</v>
       </c>
@@ -4717,7 +4716,7 @@
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="17" t="s">
         <v>40</v>
       </c>
@@ -4758,7 +4757,7 @@
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="17" t="s">
         <v>40</v>
       </c>
@@ -4799,7 +4798,7 @@
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="17" t="s">
         <v>40</v>
       </c>
@@ -4840,7 +4839,7 @@
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="17" t="s">
         <v>40</v>
       </c>
@@ -4881,7 +4880,7 @@
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="17" t="s">
         <v>40</v>
       </c>
@@ -4922,7 +4921,7 @@
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="17" t="s">
         <v>40</v>
       </c>
@@ -4963,7 +4962,7 @@
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="17" t="s">
         <v>40</v>
       </c>
@@ -5004,7 +5003,7 @@
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="17" t="s">
         <v>40</v>
       </c>
@@ -5045,7 +5044,7 @@
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="17" t="s">
         <v>40</v>
       </c>
@@ -5086,7 +5085,7 @@
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="17" t="s">
         <v>40</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="17" t="s">
         <v>40</v>
       </c>
@@ -5168,7 +5167,7 @@
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="17" t="s">
         <v>40</v>
       </c>
@@ -5209,7 +5208,7 @@
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="17" t="s">
         <v>40</v>
       </c>
@@ -5250,7 +5249,7 @@
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="17" t="s">
         <v>40</v>
       </c>
@@ -5291,7 +5290,7 @@
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="17" t="s">
         <v>40</v>
       </c>
@@ -5332,7 +5331,7 @@
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="17" t="s">
         <v>40</v>
       </c>
@@ -5373,7 +5372,7 @@
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="17" t="s">
         <v>40</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="17" t="s">
         <v>40</v>
       </c>
@@ -5455,7 +5454,7 @@
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="17" t="s">
         <v>40</v>
       </c>
@@ -5496,7 +5495,7 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="17" t="s">
         <v>40</v>
       </c>
@@ -5537,7 +5536,7 @@
       <c r="U89" s="5"/>
       <c r="V89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="17" t="s">
         <v>40</v>
       </c>
@@ -5578,7 +5577,7 @@
       <c r="U90" s="5"/>
       <c r="V90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="17" t="s">
         <v>40</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="17" t="s">
         <v>40</v>
       </c>
@@ -5661,10 +5660,10 @@
       <c r="V92" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q68"/>
+  <autoFilter ref="A1:V92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5679,17 +5678,17 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.6232558139535"/>
@@ -5705,7 +5704,7 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -5739,7 +5738,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5764,11 +5763,8 @@
       <c r="H2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -5820,7 +5816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -5872,7 +5868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -5928,7 +5924,7 @@
       <c r="L8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -5958,7 +5954,7 @@
       <c r="L9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -5988,7 +5984,7 @@
       <c r="L10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -6048,7 +6044,7 @@
       <c r="L12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6108,7 +6104,7 @@
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -6138,7 +6134,7 @@
       <c r="L15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -6168,7 +6164,7 @@
       <c r="L16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6198,7 +6194,7 @@
       <c r="L17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -6228,7 +6224,7 @@
       <c r="L18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -6258,7 +6254,7 @@
       <c r="L19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -6288,7 +6284,7 @@
       <c r="L20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -6315,7 +6311,7 @@
       <c r="L21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -6345,7 +6341,7 @@
       <c r="L22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
@@ -6374,7 +6370,7 @@
       <c r="L23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
@@ -6403,7 +6399,7 @@
       <c r="L24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -6429,7 +6425,7 @@
       <c r="L25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -6458,7 +6454,7 @@
       <c r="L26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -6487,7 +6483,7 @@
       <c r="L27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -6516,7 +6512,7 @@
       <c r="L28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -6545,7 +6541,7 @@
       <c r="L29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -6574,7 +6570,7 @@
       <c r="L30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -6603,7 +6599,7 @@
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
         <v>33</v>
       </c>
@@ -6632,7 +6628,7 @@
       <c r="L32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
         <v>33</v>
       </c>
@@ -6661,7 +6657,7 @@
       <c r="L33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -6690,7 +6686,7 @@
       <c r="L34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -6716,7 +6712,7 @@
       <c r="L35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -6745,7 +6741,7 @@
       <c r="L36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -6774,7 +6770,7 @@
       <c r="L37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -6803,7 +6799,7 @@
       <c r="L38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -6832,7 +6828,7 @@
       <c r="L39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
@@ -6861,7 +6857,7 @@
       <c r="L40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6890,7 +6886,7 @@
       <c r="L41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
         <v>33</v>
       </c>
@@ -6919,7 +6915,7 @@
       <c r="L42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
         <v>33</v>
       </c>
@@ -6948,7 +6944,7 @@
       <c r="L43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
@@ -6977,7 +6973,7 @@
       <c r="L44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
@@ -7009,7 +7005,7 @@
       <c r="L45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>33</v>
       </c>
@@ -7041,7 +7037,7 @@
       <c r="L46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -7073,7 +7069,7 @@
       <c r="L47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>33</v>
       </c>
@@ -7105,7 +7101,7 @@
       <c r="L48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>33</v>
       </c>
@@ -7137,7 +7133,7 @@
       <c r="L49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
@@ -7169,7 +7165,7 @@
       <c r="L50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
@@ -7201,7 +7197,7 @@
       <c r="L51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>33</v>
       </c>
@@ -7233,7 +7229,7 @@
       <c r="L52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>33</v>
       </c>
@@ -7265,7 +7261,7 @@
       <c r="L53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
@@ -7297,7 +7293,7 @@
       <c r="L54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>33</v>
       </c>
@@ -7329,7 +7325,7 @@
       <c r="L55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
@@ -7361,7 +7357,7 @@
       <c r="L56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>33</v>
       </c>
@@ -7393,7 +7389,7 @@
       <c r="L57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>33</v>
       </c>
@@ -7425,7 +7421,7 @@
       <c r="L58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>33</v>
       </c>
@@ -7457,7 +7453,7 @@
       <c r="L59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -7489,7 +7485,7 @@
       <c r="L60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -7521,7 +7517,7 @@
       <c r="L61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>33</v>
       </c>
@@ -7557,7 +7553,7 @@
   <autoFilter ref="A1:I62"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7574,16 +7570,16 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6279069767442"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.5767441860465"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6093023255814"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.0558139534884"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9953488372093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6418604651163"/>
@@ -7595,14 +7591,14 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1209302325581"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.75348837209302"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.306976744186"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.9348837209302"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.706976744186"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -7661,7 +7657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
@@ -7710,7 +7706,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
@@ -7759,7 +7755,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -7808,7 +7804,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -7857,7 +7853,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -7906,7 +7902,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -7955,14 +7951,16 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28" t="s">
+        <v>154</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>63</v>
       </c>
@@ -7970,16 +7968,16 @@
         <v>62</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N8" s="28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>64</v>
@@ -7993,14 +7991,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="28"/>
+        <v>157</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>154</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>63</v>
       </c>
@@ -8008,16 +8008,16 @@
         <v>62</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N9" s="28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>64</v>
@@ -8031,31 +8031,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>154</v>
+      </c>
       <c r="D10" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N10" s="28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>64</v>
@@ -8086,13 +8088,13 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0883720930233"/>
@@ -8107,7 +8109,7 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>4</v>
@@ -8171,9 +8173,8 @@
         <v>15</v>
       </c>
       <c r="K2" s="31"/>
-      <c r="L2" s="0"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2</v>
@@ -8205,9 +8206,8 @@
         <v>15</v>
       </c>
       <c r="K3" s="31"/>
-      <c r="L3" s="0"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>1</v>
@@ -8239,9 +8239,8 @@
         <v>15</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="0"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>4</v>
@@ -8273,9 +8272,8 @@
         <v>15</v>
       </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="0"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>2</v>
@@ -8307,9 +8305,8 @@
         <v>15</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
@@ -8317,7 +8314,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1</v>
@@ -8341,9 +8338,8 @@
         <v>15</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="0"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8347,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>4</v>
@@ -8375,9 +8371,8 @@
         <v>15</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="0"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
@@ -8385,7 +8380,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>2</v>
@@ -8409,9 +8404,8 @@
         <v>15</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="0"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
@@ -8419,7 +8413,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1</v>
@@ -8443,9 +8437,8 @@
         <v>15</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="0"/>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
@@ -8453,7 +8446,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>4</v>
@@ -8477,9 +8470,8 @@
         <v>15</v>
       </c>
       <c r="K11" s="31"/>
-      <c r="L11" s="0"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
         <v>13</v>
       </c>
@@ -8487,7 +8479,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>2</v>
@@ -8511,9 +8503,8 @@
         <v>15</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="0"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
         <v>13</v>
       </c>
@@ -8521,7 +8512,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>1</v>
@@ -8545,9 +8536,8 @@
         <v>15</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="0"/>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
@@ -8555,7 +8545,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>4</v>
@@ -8579,9 +8569,8 @@
         <v>15</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="0"/>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
         <v>13</v>
       </c>
@@ -8589,7 +8578,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>2</v>
@@ -8613,9 +8602,8 @@
         <v>15</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="L15" s="0"/>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
@@ -8623,7 +8611,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1</v>
@@ -8647,9 +8635,8 @@
         <v>15</v>
       </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="0"/>
-    </row>
-    <row r="17" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
         <v>13</v>
       </c>
@@ -8657,7 +8644,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>4</v>
@@ -8681,9 +8668,8 @@
         <v>15</v>
       </c>
       <c r="K17" s="31"/>
-      <c r="L17" s="0"/>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
         <v>13</v>
       </c>
@@ -8691,7 +8677,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2</v>
@@ -8715,9 +8701,8 @@
         <v>15</v>
       </c>
       <c r="K18" s="31"/>
-      <c r="L18" s="0"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
         <v>13</v>
       </c>
@@ -8725,7 +8710,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>1</v>
@@ -8749,7 +8734,6 @@
         <v>15</v>
       </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8768,17 +8752,17 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X65536"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="F4" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1162790697674"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0558139534884"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96744186046512"/>
@@ -8806,7 +8790,7 @@
     <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="149.274418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8814,7 +8798,7 @@
         <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>49</v>
@@ -8838,7 +8822,7 @@
         <v>55</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>43</v>
@@ -8870,27 +8854,27 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>1</v>
@@ -8911,31 +8895,30 @@
         <v>15</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="U2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>1</v>
@@ -8956,33 +8939,33 @@
         <v>15</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>1</v>
@@ -9003,33 +8986,33 @@
         <v>15</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>1</v>
@@ -9050,33 +9033,33 @@
         <v>15</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>1</v>
@@ -9097,33 +9080,33 @@
         <v>15</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>1</v>
@@ -9144,21 +9127,21 @@
         <v>15</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>61</v>
@@ -9187,21 +9170,21 @@
         <v>15</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>61</v>
@@ -9230,21 +9213,21 @@
         <v>15</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
@@ -9273,21 +9256,21 @@
         <v>15</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>61</v>
@@ -9316,21 +9299,21 @@
         <v>15</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>61</v>
@@ -9359,21 +9342,21 @@
         <v>15</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>61</v>
@@ -9402,21 +9385,21 @@
         <v>15</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>61</v>
@@ -9425,7 +9408,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>1</v>
@@ -9452,21 +9435,21 @@
         <v>15</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>61</v>
@@ -9475,7 +9458,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>1</v>
@@ -9502,21 +9485,21 @@
         <v>15</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>61</v>
@@ -9525,7 +9508,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1</v>
@@ -9552,21 +9535,21 @@
         <v>15</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>61</v>
@@ -9575,7 +9558,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>2</v>
@@ -9599,21 +9582,21 @@
         <v>15</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>61</v>
@@ -9622,7 +9605,7 @@
         <v>73</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" s="5" t="n">
         <v>2</v>
@@ -9646,21 +9629,21 @@
         <v>15</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>61</v>
@@ -9669,7 +9652,7 @@
         <v>73</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>2</v>
@@ -9693,21 +9676,21 @@
         <v>15</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>61</v>
@@ -9743,21 +9726,21 @@
         <v>15</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>61</v>
@@ -9766,7 +9749,7 @@
         <v>73</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>1</v>
@@ -9793,21 +9776,21 @@
         <v>15</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>61</v>
@@ -9816,7 +9799,7 @@
         <v>73</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>1</v>
@@ -9843,7 +9826,7 @@
         <v>15</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -9854,10 +9837,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>61</v>
@@ -9893,7 +9876,7 @@
         <v>15</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -9904,10 +9887,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>61</v>
@@ -9916,7 +9899,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>1</v>
@@ -9943,7 +9926,7 @@
         <v>15</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -9954,10 +9937,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>61</v>
@@ -9993,7 +9976,7 @@
         <v>15</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -10004,10 +9987,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>61</v>
@@ -10016,7 +9999,7 @@
         <v>73</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>2</v>
@@ -10037,21 +10020,21 @@
         <v>15</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>61</v>
@@ -10081,21 +10064,21 @@
         <v>15</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>61</v>
@@ -10125,21 +10108,21 @@
         <v>15</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>61</v>
@@ -10148,7 +10131,7 @@
         <v>73</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>1</v>
@@ -10172,21 +10155,21 @@
         <v>15</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>61</v>
@@ -10195,7 +10178,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>1</v>
@@ -10219,21 +10202,21 @@
         <v>15</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>61</v>
@@ -10242,7 +10225,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>1</v>
@@ -10266,21 +10249,21 @@
         <v>15</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>61</v>
@@ -10289,7 +10272,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>1</v>
@@ -10313,21 +10296,21 @@
         <v>15</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>61</v>
@@ -10336,7 +10319,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>1</v>
@@ -10363,21 +10346,21 @@
         <v>15</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>61</v>
@@ -10386,7 +10369,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>1</v>
@@ -10413,21 +10396,21 @@
         <v>15</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>61</v>
@@ -10436,7 +10419,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>1</v>
@@ -10463,21 +10446,21 @@
         <v>15</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>61</v>
@@ -10486,7 +10469,7 @@
         <v>73</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L36" s="5" t="n">
         <v>2</v>
@@ -10510,21 +10493,21 @@
         <v>15</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>61</v>
@@ -10533,7 +10516,7 @@
         <v>73</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L37" s="5" t="n">
         <v>2</v>
@@ -10557,21 +10540,21 @@
         <v>15</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>61</v>
@@ -10580,7 +10563,7 @@
         <v>73</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" s="5" t="n">
         <v>2</v>
@@ -10604,21 +10587,21 @@
         <v>15</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>61</v>
@@ -10654,21 +10637,21 @@
         <v>15</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>61</v>
@@ -10677,7 +10660,7 @@
         <v>73</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>1</v>
@@ -10704,21 +10687,21 @@
         <v>15</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>61</v>
@@ -10727,7 +10710,7 @@
         <v>73</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>1</v>
@@ -10754,7 +10737,7 @@
         <v>15</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -10765,10 +10748,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>61</v>
@@ -10804,7 +10787,7 @@
         <v>15</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -10815,10 +10798,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>61</v>
@@ -10827,7 +10810,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>1</v>
@@ -10854,7 +10837,7 @@
         <v>15</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -10865,10 +10848,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>61</v>
@@ -10904,21 +10887,21 @@
         <v>15</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>61</v>
@@ -10927,7 +10910,7 @@
         <v>73</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L45" s="5" t="n">
         <v>2</v>
@@ -10948,21 +10931,21 @@
         <v>15</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>61</v>
@@ -10992,21 +10975,21 @@
         <v>15</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>61</v>
@@ -11036,21 +11019,21 @@
         <v>15</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>61</v>
@@ -11059,7 +11042,7 @@
         <v>73</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>1</v>
@@ -11083,21 +11066,21 @@
         <v>15</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>61</v>
@@ -11106,7 +11089,7 @@
         <v>73</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>1</v>
@@ -11130,21 +11113,21 @@
         <v>15</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>61</v>
@@ -11153,7 +11136,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>1</v>
@@ -11177,21 +11160,21 @@
         <v>15</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>61</v>
@@ -11200,7 +11183,7 @@
         <v>73</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>1</v>
@@ -11224,7 +11207,7 @@
         <v>15</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
@@ -11235,19 +11218,19 @@
         <v>33</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="E52" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L52" s="5" t="n">
         <v>1</v>
@@ -11268,21 +11251,21 @@
         <v>15</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="21"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>61</v>
@@ -11291,7 +11274,7 @@
         <v>73</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>1</v>
@@ -11318,21 +11301,21 @@
         <v>15</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>61</v>
@@ -11341,7 +11324,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>1</v>
@@ -11368,21 +11351,21 @@
         <v>15</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>61</v>
@@ -11391,7 +11374,7 @@
         <v>73</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>1</v>
@@ -11418,21 +11401,21 @@
         <v>15</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>61</v>
@@ -11441,7 +11424,7 @@
         <v>73</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>1</v>
@@ -11468,21 +11451,21 @@
         <v>15</v>
       </c>
       <c r="S56" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>61</v>
@@ -11491,7 +11474,7 @@
         <v>73</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>1</v>
@@ -11518,21 +11501,21 @@
         <v>15</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>61</v>
@@ -11541,7 +11524,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>1</v>
@@ -11568,7 +11551,7 @@
         <v>15</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
@@ -11579,10 +11562,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>61</v>
@@ -11591,7 +11574,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L59" s="5" t="n">
         <v>2</v>
@@ -11615,21 +11598,21 @@
         <v>15</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>61</v>
@@ -11638,7 +11621,7 @@
         <v>73</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L60" s="5" t="n">
         <v>2</v>
@@ -11662,21 +11645,21 @@
         <v>15</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>61</v>
@@ -11685,7 +11668,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L61" s="5" t="n">
         <v>2</v>
@@ -11709,7 +11692,7 @@
         <v>15</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
@@ -11720,10 +11703,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>61</v>
@@ -11756,21 +11739,21 @@
         <v>15</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>61</v>
@@ -11803,21 +11786,21 @@
         <v>15</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>61</v>
@@ -11850,21 +11833,21 @@
         <v>15</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>61</v>
@@ -11873,7 +11856,7 @@
         <v>73</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>1</v>
@@ -11900,21 +11883,21 @@
         <v>15</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>61</v>
@@ -11923,7 +11906,7 @@
         <v>73</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>1</v>
@@ -11950,21 +11933,21 @@
         <v>15</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>61</v>
@@ -11973,7 +11956,7 @@
         <v>73</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>1</v>
@@ -12000,21 +11983,21 @@
         <v>15</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>61</v>
@@ -12023,7 +12006,7 @@
         <v>73</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>1</v>
@@ -12050,21 +12033,21 @@
         <v>15</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>61</v>
@@ -12073,7 +12056,7 @@
         <v>73</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K69" s="5" t="n">
         <v>1</v>
@@ -12100,21 +12083,21 @@
         <v>15</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>61</v>
@@ -12150,21 +12133,21 @@
         <v>15</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>61</v>
@@ -12173,9 +12156,9 @@
         <v>73</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K71" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="K71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L71" s="5" t="n">
@@ -12200,21 +12183,21 @@
         <v>15</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>61</v>
@@ -12223,9 +12206,9 @@
         <v>73</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K72" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="K72" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L72" s="5" t="n">
@@ -12250,21 +12233,21 @@
         <v>15</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>61</v>
@@ -12273,9 +12256,9 @@
         <v>73</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K73" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="K73" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L73" s="5" t="n">
@@ -12300,21 +12283,21 @@
         <v>15</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>61</v>
@@ -12323,7 +12306,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K74" s="5" t="n">
         <v>1</v>
@@ -12344,21 +12327,21 @@
         <v>15</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>61</v>
@@ -12367,7 +12350,7 @@
         <v>73</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K75" s="5" t="n">
         <v>1</v>
@@ -12391,21 +12374,21 @@
         <v>15</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>61</v>
@@ -12414,7 +12397,7 @@
         <v>73</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K76" s="5" t="n">
         <v>1</v>
@@ -12438,21 +12421,21 @@
         <v>15</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>61</v>
@@ -12461,7 +12444,7 @@
         <v>73</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K77" s="5" t="n">
         <v>1</v>
@@ -12485,21 +12468,21 @@
         <v>15</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>61</v>
@@ -12508,7 +12491,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K78" s="5" t="n">
         <v>1</v>
@@ -12532,21 +12515,21 @@
         <v>15</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>61</v>
@@ -12555,7 +12538,7 @@
         <v>73</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K79" s="5" t="n">
         <v>1</v>
@@ -12579,21 +12562,21 @@
         <v>15</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>61</v>
@@ -12602,7 +12585,7 @@
         <v>73</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K80" s="5" t="n">
         <v>1</v>
@@ -12626,21 +12609,21 @@
         <v>15</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>61</v>
@@ -12649,7 +12632,7 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K81" s="5" t="n">
         <v>1</v>
@@ -12676,21 +12659,21 @@
         <v>15</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>61</v>
@@ -12699,7 +12682,7 @@
         <v>73</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K82" s="5" t="n">
         <v>1</v>
@@ -12726,21 +12709,21 @@
         <v>15</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>61</v>
@@ -12749,7 +12732,7 @@
         <v>73</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K83" s="5" t="n">
         <v>1</v>
@@ -12776,21 +12759,21 @@
         <v>15</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>61</v>
@@ -12799,7 +12782,7 @@
         <v>73</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K84" s="5" t="n">
         <v>1</v>
@@ -12826,21 +12809,21 @@
         <v>15</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>61</v>
@@ -12849,7 +12832,7 @@
         <v>73</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K85" s="5" t="n">
         <v>1</v>
@@ -12876,21 +12859,21 @@
         <v>15</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>61</v>
@@ -12899,7 +12882,7 @@
         <v>73</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K86" s="5" t="n">
         <v>1</v>
@@ -12926,21 +12909,21 @@
         <v>15</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>61</v>
@@ -12949,7 +12932,7 @@
         <v>73</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L87" s="5" t="n">
         <v>2</v>
@@ -12973,21 +12956,21 @@
         <v>15</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>61</v>
@@ -12996,7 +12979,7 @@
         <v>73</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L88" s="5" t="n">
         <v>2</v>
@@ -13020,21 +13003,21 @@
         <v>15</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>61</v>
@@ -13043,7 +13026,7 @@
         <v>73</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L89" s="5" t="n">
         <v>2</v>
@@ -13067,21 +13050,21 @@
         <v>15</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>61</v>
@@ -13090,7 +13073,7 @@
         <v>73</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L90" s="5" t="n">
         <v>2</v>
@@ -13114,21 +13097,21 @@
         <v>15</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>61</v>
@@ -13137,7 +13120,7 @@
         <v>73</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L91" s="5" t="n">
         <v>2</v>
@@ -13161,7 +13144,7 @@
         <v>15</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
@@ -13172,10 +13155,10 @@
         <v>20</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>61</v>
@@ -13184,7 +13167,7 @@
         <v>73</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L92" s="5" t="n">
         <v>2</v>
@@ -13208,21 +13191,21 @@
         <v>15</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>61</v>
@@ -13231,7 +13214,7 @@
         <v>73</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K93" s="5" t="n">
         <v>1</v>
@@ -13258,21 +13241,21 @@
         <v>15</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>61</v>
@@ -13281,7 +13264,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K94" s="5" t="n">
         <v>1</v>
@@ -13308,21 +13291,21 @@
         <v>15</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>61</v>
@@ -13331,7 +13314,7 @@
         <v>73</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K95" s="5" t="n">
         <v>1</v>
@@ -13358,21 +13341,21 @@
         <v>15</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>61</v>
@@ -13381,7 +13364,7 @@
         <v>73</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K96" s="5" t="n">
         <v>1</v>
@@ -13408,21 +13391,21 @@
         <v>15</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>61</v>
@@ -13431,7 +13414,7 @@
         <v>73</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K97" s="5" t="n">
         <v>1</v>
@@ -13458,21 +13441,21 @@
         <v>15</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>61</v>
@@ -13508,21 +13491,21 @@
         <v>15</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>61</v>
@@ -13555,21 +13538,21 @@
         <v>15</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>61</v>
@@ -13602,21 +13585,21 @@
         <v>15</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>61</v>
@@ -13649,21 +13632,21 @@
         <v>15</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>61</v>
@@ -13672,7 +13655,7 @@
         <v>73</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K102" s="5" t="n">
         <v>1</v>
@@ -13693,21 +13676,21 @@
         <v>15</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>61</v>
@@ -13716,7 +13699,7 @@
         <v>73</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K103" s="5" t="n">
         <v>1</v>
@@ -13740,21 +13723,21 @@
         <v>15</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>61</v>
@@ -13763,7 +13746,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K104" s="5" t="n">
         <v>1</v>
@@ -13787,21 +13770,21 @@
         <v>15</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>61</v>
@@ -13810,7 +13793,7 @@
         <v>73</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K105" s="5" t="n">
         <v>1</v>
@@ -13834,21 +13817,21 @@
         <v>15</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>61</v>
@@ -13857,7 +13840,7 @@
         <v>73</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K106" s="5" t="n">
         <v>1</v>
@@ -13881,21 +13864,21 @@
         <v>15</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>61</v>
@@ -13904,7 +13887,7 @@
         <v>73</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K107" s="5" t="n">
         <v>1</v>
@@ -13928,21 +13911,21 @@
         <v>15</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>61</v>
@@ -13951,7 +13934,7 @@
         <v>73</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K108" s="5" t="n">
         <v>1</v>
@@ -13975,21 +13958,21 @@
         <v>15</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>61</v>
@@ -13998,7 +13981,7 @@
         <v>73</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K109" s="5" t="n">
         <v>1</v>
@@ -14022,21 +14005,21 @@
         <v>15</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>61</v>
@@ -14045,7 +14028,7 @@
         <v>73</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K110" s="5" t="n">
         <v>1</v>
@@ -14069,21 +14052,21 @@
         <v>15</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>61</v>
@@ -14092,7 +14075,7 @@
         <v>73</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L111" s="5" t="n">
         <v>2</v>
@@ -14113,21 +14096,21 @@
         <v>15</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>61</v>
@@ -14136,7 +14119,7 @@
         <v>73</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L112" s="5" t="n">
         <v>2</v>
@@ -14157,21 +14140,21 @@
         <v>15</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>61</v>
@@ -14180,7 +14163,7 @@
         <v>73</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K113" s="5" t="n">
         <v>1</v>
@@ -14207,21 +14190,21 @@
         <v>15</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>61</v>
@@ -14230,7 +14213,7 @@
         <v>73</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K114" s="5" t="n">
         <v>1</v>
@@ -14257,21 +14240,21 @@
         <v>15</v>
       </c>
       <c r="S114" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>61</v>
@@ -14280,7 +14263,7 @@
         <v>73</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K115" s="5" t="n">
         <v>1</v>
@@ -14307,21 +14290,21 @@
         <v>15</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>61</v>
@@ -14330,7 +14313,7 @@
         <v>73</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K116" s="5" t="n">
         <v>1</v>
@@ -14357,21 +14340,21 @@
         <v>15</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>61</v>
@@ -14380,7 +14363,7 @@
         <v>73</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K117" s="5" t="n">
         <v>1</v>
@@ -14407,21 +14390,21 @@
         <v>15</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>61</v>
@@ -14457,21 +14440,21 @@
         <v>15</v>
       </c>
       <c r="S118" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>61</v>
@@ -14504,21 +14487,21 @@
         <v>15</v>
       </c>
       <c r="S119" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>61</v>
@@ -14551,21 +14534,21 @@
         <v>15</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>61</v>
@@ -14598,21 +14581,21 @@
         <v>15</v>
       </c>
       <c r="S121" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>61</v>
@@ -14621,7 +14604,7 @@
         <v>73</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K122" s="5" t="n">
         <v>1</v>
@@ -14642,21 +14625,21 @@
         <v>15</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>61</v>
@@ -14665,7 +14648,7 @@
         <v>73</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K123" s="5" t="n">
         <v>1</v>
@@ -14689,21 +14672,21 @@
         <v>15</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>61</v>
@@ -14712,7 +14695,7 @@
         <v>73</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K124" s="5" t="n">
         <v>1</v>
@@ -14736,21 +14719,21 @@
         <v>15</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V124" s="5"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>61</v>
@@ -14759,7 +14742,7 @@
         <v>73</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K125" s="5" t="n">
         <v>1</v>
@@ -14783,21 +14766,21 @@
         <v>15</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V125" s="5"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>61</v>
@@ -14806,7 +14789,7 @@
         <v>73</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K126" s="5" t="n">
         <v>1</v>
@@ -14830,21 +14813,21 @@
         <v>15</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V126" s="5"/>
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>61</v>
@@ -14853,7 +14836,7 @@
         <v>73</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K127" s="5" t="n">
         <v>1</v>
@@ -14877,7 +14860,7 @@
         <v>15</v>
       </c>
       <c r="S127" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V127" s="5"/>
       <c r="W127" s="5"/>
@@ -14888,10 +14871,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>61</v>
@@ -14900,7 +14883,7 @@
         <v>73</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K128" s="5" t="n">
         <v>1</v>
@@ -14924,7 +14907,7 @@
         <v>15</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
@@ -14935,10 +14918,10 @@
         <v>18</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>61</v>
@@ -14947,7 +14930,7 @@
         <v>73</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K129" s="5" t="n">
         <v>1</v>
@@ -14971,7 +14954,7 @@
         <v>15</v>
       </c>
       <c r="S129" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V129" s="5"/>
       <c r="W129" s="5"/>
@@ -14982,10 +14965,10 @@
         <v>20</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>61</v>
@@ -14994,7 +14977,7 @@
         <v>73</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L130" s="5" t="n">
         <v>2</v>
@@ -15015,7 +14998,7 @@
         <v>15</v>
       </c>
       <c r="S130" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
@@ -15026,10 +15009,10 @@
         <v>20</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>61</v>
@@ -15038,7 +15021,7 @@
         <v>73</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L131" s="5" t="n">
         <v>2</v>
@@ -15059,21 +15042,21 @@
         <v>15</v>
       </c>
       <c r="S131" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>61</v>
@@ -15082,7 +15065,7 @@
         <v>73</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K132" s="5" t="n">
         <v>1</v>
@@ -15109,21 +15092,21 @@
         <v>15</v>
       </c>
       <c r="S132" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>61</v>
@@ -15132,7 +15115,7 @@
         <v>73</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K133" s="5" t="n">
         <v>1</v>
@@ -15159,21 +15142,21 @@
         <v>15</v>
       </c>
       <c r="S133" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>61</v>
@@ -15182,7 +15165,7 @@
         <v>73</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K134" s="5" t="n">
         <v>1</v>
@@ -15209,21 +15192,21 @@
         <v>15</v>
       </c>
       <c r="S134" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>61</v>
@@ -15232,7 +15215,7 @@
         <v>73</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K135" s="5" t="n">
         <v>1</v>
@@ -15259,21 +15242,21 @@
         <v>15</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>61</v>
@@ -15282,7 +15265,7 @@
         <v>73</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K136" s="5" t="n">
         <v>1</v>
@@ -15309,21 +15292,21 @@
         <v>15</v>
       </c>
       <c r="S136" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
       <c r="X136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>61</v>
@@ -15359,21 +15342,21 @@
         <v>15</v>
       </c>
       <c r="S137" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V137" s="5"/>
       <c r="W137" s="5"/>
       <c r="X137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>61</v>
@@ -15382,7 +15365,7 @@
         <v>73</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K138" s="5" t="n">
         <v>1</v>
@@ -15403,21 +15386,21 @@
         <v>15</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V138" s="5"/>
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>61</v>
@@ -15426,7 +15409,7 @@
         <v>73</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K139" s="5" t="n">
         <v>1</v>
@@ -15450,21 +15433,21 @@
         <v>15</v>
       </c>
       <c r="S139" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>61</v>
@@ -15473,7 +15456,7 @@
         <v>73</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K140" s="5" t="n">
         <v>1</v>
@@ -15497,21 +15480,21 @@
         <v>15</v>
       </c>
       <c r="S140" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V140" s="5"/>
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>61</v>
@@ -15520,7 +15503,7 @@
         <v>73</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K141" s="5" t="n">
         <v>1</v>
@@ -15544,21 +15527,21 @@
         <v>15</v>
       </c>
       <c r="S141" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>61</v>
@@ -15567,7 +15550,7 @@
         <v>73</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K142" s="5" t="n">
         <v>1</v>
@@ -15591,21 +15574,21 @@
         <v>15</v>
       </c>
       <c r="S142" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V142" s="5"/>
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>61</v>
@@ -15614,7 +15597,7 @@
         <v>73</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K143" s="5" t="n">
         <v>1</v>
@@ -15638,7 +15621,7 @@
         <v>15</v>
       </c>
       <c r="S143" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
@@ -15649,19 +15632,19 @@
         <v>33</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L144" s="5" t="n">
         <v>1</v>
@@ -15682,30 +15665,30 @@
         <v>15</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L145" s="5" t="n">
         <v>1</v>
@@ -15726,30 +15709,30 @@
         <v>15</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V145" s="5"/>
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F146" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L146" s="5" t="n">
         <v>1</v>
@@ -15770,30 +15753,30 @@
         <v>15</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
     </row>
-    <row r="147" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L147" s="5" t="n">
         <v>1</v>
@@ -15814,30 +15797,30 @@
         <v>15</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
       <c r="X147" s="5"/>
     </row>
-    <row r="148" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L148" s="5" t="n">
         <v>1</v>
@@ -15858,30 +15841,30 @@
         <v>15</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
     </row>
-    <row r="149" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L149" s="5" t="n">
         <v>1</v>
@@ -15902,7 +15885,7 @@
         <v>15</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V149" s="5"/>
       <c r="W149" s="5"/>
@@ -15913,19 +15896,19 @@
         <v>33</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="E150" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L150" s="5" t="n">
         <v>1</v>
@@ -15946,20 +15929,17 @@
         <v>15</v>
       </c>
       <c r="S150" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V150" s="5"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:S150"/>
+  <autoFilter ref="A1:X150"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
